--- a/Words/WORD/Чеклист.xlsx
+++ b/Words/WORD/Чеклист.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WPS\ElectronicDiary\Words\WORD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9FB79CA-27A7-421E-9604-647618D61D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B06905B-D197-4174-82D7-B0928856BCC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17497" yWindow="-109" windowWidth="17606" windowHeight="14129" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -525,7 +525,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.625" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -591,7 +591,7 @@
       <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="16" t="s">
@@ -614,10 +614,10 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
